--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684376.5094811318</v>
+        <v>745211.9843928317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554238</v>
+        <v>337002.2430554236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8170070.11310567</v>
+        <v>8170070.113105669</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +721,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>21.18375537072436</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>222.3082294474576</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>222.3082294474576</v>
+        <v>51.86683734433478</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>94.41048699370624</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="V8" t="n">
-        <v>68.38541766120755</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>69.90197782146261</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.0534248276215</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>354.4615806820896</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>23.59568114728116</v>
       </c>
       <c r="F13" t="n">
-        <v>78.3162925372537</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>242.0561981984261</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.2607927468913</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>86.11283245544996</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.0978190620148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>279.4316181576252</v>
       </c>
       <c r="D17" t="n">
-        <v>290.1558543032737</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>79.32920716089187</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.50343408519502</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>323.7212223042765</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>278.7329666858698</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>89.06613335611783</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>129.0036366911897</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>147.940504255845</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>116.2349668968049</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017903</v>
+        <v>184.2720459863179</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228954</v>
+        <v>105.9602739879884</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>274.1142758523305</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>12.02120058606576</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>34.02048567924308</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>291.7556181493937</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.3248162410023</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.19029374363625</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>184.287718198781</v>
       </c>
       <c r="I35" t="n">
-        <v>97.91764538942759</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.91413898973432</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>234.4871813790492</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>46.35302216442646</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>275.2288696932976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250886</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>153.7066665474637</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>128.7835007017904</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>265.263943974177</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>72.49705479598714</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.5540262346243</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>150.5540262346247</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>47.40419526769224</v>
+        <v>221.8199080766634</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>14.82811972447731</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4369,7 +4369,7 @@
         <v>40.6788758079141</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X2" t="n">
         <v>19.28114311021272</v>
@@ -4412,46 +4412,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>262.7299197543128</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4509,10 +4509,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,16 +4679,16 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>262.7299197543128</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>358.0940480307839</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>358.0940480307839</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>358.0940480307839</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>358.0940480307839</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>358.0940480307839</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>114.6452713866837</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K8" t="n">
         <v>122.2961490211351</v>
@@ -4813,43 +4813,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686981</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759377</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185857</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>812.6742080953339</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748841</v>
       </c>
       <c r="T8" t="n">
-        <v>587.3248651012614</v>
+        <v>601.5428246748841</v>
       </c>
       <c r="U8" t="n">
-        <v>587.3248651012614</v>
+        <v>358.0940480307839</v>
       </c>
       <c r="V8" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307839</v>
       </c>
       <c r="W8" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307839</v>
       </c>
       <c r="X8" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307839</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7999090013961</v>
+        <v>358.0940480307839</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K9" t="n">
         <v>144.6387031680501</v>
@@ -4892,43 +4892,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084033</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972859</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>893.4490971051189</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>691.2625024638849</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>463.038884200274</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792571</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014789</v>
       </c>
       <c r="N10" t="n">
         <v>129.4741569655842</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1623.178216428726</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C11" t="n">
-        <v>1623.178216428726</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D11" t="n">
-        <v>1264.912517821975</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E11" t="n">
-        <v>879.1242652237311</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F11" t="n">
-        <v>468.1383604341235</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V11" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W11" t="n">
-        <v>2013.317548404538</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X11" t="n">
-        <v>2013.317548404538</v>
+        <v>1558.203358802398</v>
       </c>
       <c r="Y11" t="n">
-        <v>1623.178216428726</v>
+        <v>1168.064026826587</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5123,22 +5123,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5147,16 +5147,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.7118141694736</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C13" t="n">
-        <v>438.7118141694736</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D13" t="n">
-        <v>438.7118141694736</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E13" t="n">
-        <v>290.7987205870805</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
         <v>53.94298182036445</v>
@@ -5226,25 +5226,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694736</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.7118141694736</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1666.64813361638</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C14" t="n">
-        <v>1422.14692331494</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D14" t="n">
-        <v>1422.14692331494</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F14" t="n">
         <v>625.3727659270879</v>
@@ -5278,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2443.387305656314</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>2443.387305656314</v>
+        <v>1015.5120979029</v>
       </c>
       <c r="Y14" t="n">
-        <v>2053.247973680502</v>
+        <v>625.3727659270879</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5384,16 +5384,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.9553738610024</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C16" t="n">
-        <v>438.9553738610024</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D16" t="n">
-        <v>288.8387344486666</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E16" t="n">
-        <v>140.9256408662735</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F16" t="n">
-        <v>140.9256408662735</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5469,19 +5469,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>438.9553738610024</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.9553738610024</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1150.78176403888</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C17" t="n">
-        <v>1150.78176403888</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D17" t="n">
-        <v>857.6950425204218</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E17" t="n">
         <v>471.9067899221776</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X17" t="n">
-        <v>1540.921096014692</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y17" t="n">
-        <v>1150.78176403888</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5597,40 +5597,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>438.7118141694736</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C19" t="n">
-        <v>269.7756312415667</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D19" t="n">
-        <v>269.7756312415667</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E19" t="n">
-        <v>269.7756312415667</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F19" t="n">
-        <v>269.7756312415667</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G19" t="n">
         <v>211.6913543878343</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y19" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1275.883734065348</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C20" t="n">
-        <v>906.9212171249362</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D20" t="n">
-        <v>906.9212171249362</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>906.9212171249362</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W20" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X20" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y20" t="n">
-        <v>1662.48357412947</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5855,19 +5855,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C22" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D22" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E22" t="n">
-        <v>290.7987205870807</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>143.9087730891704</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>143.9087730891704</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694738</v>
+        <v>597.8222804779598</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.68094731003</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>1032.327547495467</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1032.327547495467</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>621.3416427058594</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>203.3778346040463</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>203.3778346040463</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2579.740033546703</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2325.978248184794</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>1994.915360841223</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>1642.146705571109</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X23" t="n">
-        <v>1268.68094731003</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y23" t="n">
-        <v>1268.68094731003</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6089,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>571.9594663958189</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>571.9594663958189</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785532</v>
+        <v>571.9594663958189</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889456</v>
+        <v>160.9735616062114</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6229,10 +6229,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6317,19 +6317,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1364.743608328862</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C29" t="n">
-        <v>995.7810913884502</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D29" t="n">
-        <v>637.5153927816998</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>625.3727659270879</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
         <v>625.3727659270879</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>1364.743608328862</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X29" t="n">
-        <v>1364.743608328862</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y29" t="n">
-        <v>1364.743608328862</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1331.061315312043</v>
+        <v>840.8693068625893</v>
       </c>
       <c r="C32" t="n">
-        <v>1331.061315312043</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D32" t="n">
-        <v>1331.061315312043</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2562.477559461654</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2343.842892433717</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>2343.842892433717</v>
       </c>
       <c r="V32" t="n">
-        <v>2057.295728843237</v>
+        <v>2343.842892433717</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.527073573123</v>
+        <v>1991.074237163603</v>
       </c>
       <c r="X32" t="n">
-        <v>1331.061315312043</v>
+        <v>1617.608478902523</v>
       </c>
       <c r="Y32" t="n">
-        <v>1331.061315312043</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>438.7118141694739</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C34" t="n">
-        <v>438.7118141694739</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
-        <v>438.7118141694739</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>438.7118141694739</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>291.8218666715636</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>122.822066409896</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064346</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064346</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064346</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694739</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694739</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y34" t="n">
-        <v>438.7118141694739</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1683.829970582157</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="C35" t="n">
-        <v>1314.867453641746</v>
+        <v>984.1461433271581</v>
       </c>
       <c r="D35" t="n">
-        <v>956.6017550349952</v>
+        <v>625.8804447204077</v>
       </c>
       <c r="E35" t="n">
-        <v>570.8135024367509</v>
+        <v>240.0921921221635</v>
       </c>
       <c r="F35" t="n">
-        <v>570.8135024367509</v>
+        <v>240.0921921221635</v>
       </c>
       <c r="G35" t="n">
-        <v>152.8496943349378</v>
+        <v>240.0921921221635</v>
       </c>
       <c r="H35" t="n">
-        <v>152.8496943349378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224074</v>
@@ -6949,40 +6949,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186808</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V35" t="n">
-        <v>2057.295728843237</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W35" t="n">
-        <v>2057.295728843237</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X35" t="n">
-        <v>1683.829970582157</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y35" t="n">
-        <v>1683.829970582157</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7037,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>201.8560754027576</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="C37" t="n">
-        <v>201.8560754027576</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="D37" t="n">
-        <v>201.8560754027576</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036447</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036447</v>
+        <v>90.21988989080316</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>491.2732454397182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V37" t="n">
-        <v>491.2732454397182</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W37" t="n">
-        <v>201.8560754027576</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X37" t="n">
-        <v>201.8560754027576</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y37" t="n">
-        <v>201.8560754027576</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1272.344242153659</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C38" t="n">
-        <v>903.3817252132471</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D38" t="n">
-        <v>903.3817252132471</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E38" t="n">
-        <v>903.3817252132471</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733132</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862887</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.546461473041</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.483574129471</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W38" t="n">
-        <v>1662.483574129471</v>
+        <v>1914.441162700369</v>
       </c>
       <c r="X38" t="n">
-        <v>1662.483574129471</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y38" t="n">
-        <v>1272.344242153659</v>
+        <v>1540.97540443929</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673431</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7286,19 +7286,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036447</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036447</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036447</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036447</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036447</v>
+        <v>366.9506135266865</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036447</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064346</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005477</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>184.0273259635871</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036447</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036447</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.836072463479</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C41" t="n">
-        <v>882.8926947117852</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117852</v>
+        <v>956.12204299056</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>956.12204299056</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>545.1361382009525</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036447</v>
+        <v>127.1723300991393</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036447</v>
+        <v>127.1723300991393</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7426,37 +7426,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2267.209817970485</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2267.209817970485</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W41" t="n">
-        <v>1914.441162700371</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X41" t="n">
-        <v>1540.975404439291</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y41" t="n">
-        <v>1150.836072463479</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="42">
@@ -7487,34 +7487,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
         <v>2488.762748073964</v>
@@ -7557,49 +7557,49 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064346</v>
+        <v>576.0542102320662</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750363</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="U43" t="n">
         <v>348.7460229006679</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C44" t="n">
-        <v>940.7524019189439</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D44" t="n">
-        <v>582.4867033121934</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="E44" t="n">
-        <v>582.4867033121934</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="F44" t="n">
-        <v>582.4867033121934</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="G44" t="n">
         <v>534.603677789272</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>215.810828029868</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>68.92088053195769</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U46" t="n">
-        <v>564.1527310008552</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V46" t="n">
-        <v>564.1527310008552</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W46" t="n">
-        <v>274.7355609638946</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631353</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221036</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951785</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22609,10 +22609,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>3.633152633517255</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22749,13 +22749,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22919,19 +22919,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3.633152633517255</v>
+        <v>174.07454473664</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23001,10 +23001,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374759</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>245.0643151220609</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017733</v>
       </c>
       <c r="V8" t="n">
-        <v>259.3668408089273</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23150,10 +23150,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>101.7811932823752</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>3.730745193173505</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>15.26951999637942</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>122.838281499288</v>
       </c>
       <c r="F13" t="n">
-        <v>67.10475548567754</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923383</v>
@@ -23466,19 +23466,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>123.2166935725814</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>78.47030793157774</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>81.19696980360095</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23709,7 +23709,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>19.61183632702239</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>85.84127361338238</v>
       </c>
       <c r="D17" t="n">
-        <v>64.5271873174093</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>100.5027730210454</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>109.8063681738559</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>41.55166946673108</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>128.1430790558417</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.10475548567732</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>157.5193616454013</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>3.990811989016265</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>100.2133534608529</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401874</v>
+        <v>102.0098282556598</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789962</v>
+        <v>307.8238960328065</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,13 +24499,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>43.85831389017025</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>91.15861591867707</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>369.909169486196</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,19 +24849,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4005623436882</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>130.3958356744437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>90.17475192286804</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>41.09089656796925</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,28 +25077,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>87.98059509815887</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3082678822158</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>139.6350545655762</v>
       </c>
       <c r="I35" t="n">
-        <v>54.01367085543363</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>131.3956632693166</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>51.79469286292857</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>336.3808194990541</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>131.6471760484138</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25560,19 +25560,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>13.60313571158719</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25608,13 +25608,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>96.92615468724676</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>100.0089477968305</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>79.43426144887411</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>61.5915127153946</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>135.727848007353</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>366.3799747531028</v>
+        <v>191.9642619441316</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>152.4816825345736</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,25 +26073,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9453835684545</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457001.3944062361</v>
+        <v>457001.394406236</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457001.3944062361</v>
+        <v>457001.3944062362</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="C2" t="n">
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.088012606</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
@@ -26340,7 +26340,7 @@
         <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.088012606</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="C4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="F4" t="n">
         <v>9371.018034361483</v>
@@ -26441,25 +26441,25 @@
         <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376168</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26499,16 +26499,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16887.28395962632</v>
+        <v>-5891.074401589884</v>
       </c>
       <c r="C6" t="n">
-        <v>63882.14757192141</v>
+        <v>74878.3571299578</v>
       </c>
       <c r="D6" t="n">
-        <v>63882.14757192138</v>
+        <v>74878.35712995788</v>
       </c>
       <c r="E6" t="n">
-        <v>-266194.99587398</v>
+        <v>-260733.4235027429</v>
       </c>
       <c r="F6" t="n">
-        <v>166651.1781690161</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="G6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="H6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="I6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="J6" t="n">
-        <v>103591.2355699098</v>
+        <v>109052.8079411471</v>
       </c>
       <c r="K6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="L6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="M6" t="n">
-        <v>58677.81749495781</v>
+        <v>64139.38986619515</v>
       </c>
       <c r="N6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
       <c r="O6" t="n">
-        <v>166651.178169016</v>
+        <v>172112.7505402533</v>
       </c>
       <c r="P6" t="n">
-        <v>166651.1781690159</v>
+        <v>172112.7505402532</v>
       </c>
     </row>
   </sheetData>
@@ -26752,31 +26752,31 @@
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="H3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26795,7 +26795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26819,16 +26819,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,22 +33119,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,22 +33356,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,25 +33593,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,25 +33830,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,43 +34128,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,25 +34304,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>169.906790779802</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35491,7 +35491,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
